--- a/fVisitas.xlsx
+++ b/fVisitas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatbr\Desktop\Estrutura Equipe NWB_2025\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://breferecombr-my.sharepoint.com/personal/fernando_brefere_com_br/Documents/01_P.A.R.A/01.Projetos/Estrutura Equipe NWB_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC115841-9981-43EF-B995-DF426FE56457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{EC115841-9981-43EF-B995-DF426FE56457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9406646B-ECF8-4A4A-8448-1C788855E37E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="243">
   <si>
     <t>PR311</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Massa_Cimoagro_Birigui, SP, Brasil</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Cancelado</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
     <t>comentarios</t>
   </si>
   <si>
-    <t>PR308</t>
-  </si>
-  <si>
     <t>Eduardo Gomes De Paula</t>
   </si>
   <si>
@@ -575,9 +569,6 @@
     <t>Planejado</t>
   </si>
   <si>
-    <t>Em atraso</t>
-  </si>
-  <si>
     <t>Atendido</t>
   </si>
   <si>
@@ -618,6 +609,159 @@
   </si>
   <si>
     <t>PM-314017</t>
+  </si>
+  <si>
+    <t>segunda-feira</t>
+  </si>
+  <si>
+    <t>quarta-feira</t>
+  </si>
+  <si>
+    <t>terça-feira</t>
+  </si>
+  <si>
+    <t>quinta-feira</t>
+  </si>
+  <si>
+    <t>sexta-feira</t>
+  </si>
+  <si>
+    <t>PR310</t>
+  </si>
+  <si>
+    <t>Avaliação de sphenophorus</t>
+  </si>
+  <si>
+    <t>Avaliação de campo de plantio  e visita com Guilherme Freitas para apresentar a região</t>
+  </si>
+  <si>
+    <t>PM-306280</t>
+  </si>
+  <si>
+    <t>Fernando B. Avelhan</t>
+  </si>
+  <si>
+    <t>Biometria</t>
+  </si>
+  <si>
+    <t>Massa_07</t>
+  </si>
+  <si>
+    <t>Massa_Coplacana_Araçatuba, SP, Brasil</t>
+  </si>
+  <si>
+    <t>Avaliação de campo de plantio  - Tiago Tunes</t>
+  </si>
+  <si>
+    <t>Leandro Fioroto Galhardo</t>
+  </si>
+  <si>
+    <t>Renato Pagani</t>
+  </si>
+  <si>
+    <t>Avaliação de campo de plantio e instalação de campo herbicida Quebra lombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resgate de Cashback safra passada e apresentação de área com Sphenophurus </t>
+  </si>
+  <si>
+    <t>Visita com Guilherme Freitas da Bayer para apresentar a região</t>
+  </si>
+  <si>
+    <t>João Lucas Beltran</t>
+  </si>
+  <si>
+    <t>Julio Cesar das Neves</t>
+  </si>
+  <si>
+    <t>Visita para avalição pós aplicação de Curbix (40 dias)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirleia Gondim </t>
+  </si>
+  <si>
+    <t>Entrega de produtos e criação de conta Orbia</t>
+  </si>
+  <si>
+    <t>Atualização TBDC, planejamento Semanal e lançamento de notas Orbia</t>
+  </si>
+  <si>
+    <t>Rodagem em todas as áreas de cana e avaliação de campo</t>
+  </si>
+  <si>
+    <t>Guilherme Fardin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edmilto José Jorge </t>
+  </si>
+  <si>
+    <t>Visita ao cliente e negociação de campo Curbix</t>
+  </si>
+  <si>
+    <t>Prospecção de novos clientes na região de Andradina</t>
+  </si>
+  <si>
+    <t>Fernando Inocêncio</t>
+  </si>
+  <si>
+    <t>Juraci da Silva</t>
+  </si>
+  <si>
+    <t>Avaliação de campo de plantio e campo de Curbix</t>
+  </si>
+  <si>
+    <t>Planejamento semanal e atualização do TBDC</t>
+  </si>
+  <si>
+    <t>Avaliação de campo de QL - Graziela Araujo</t>
+  </si>
+  <si>
+    <t>Avaliação de campo de plantio  - Danilo Cico</t>
+  </si>
+  <si>
+    <t>PM-314015</t>
+  </si>
+  <si>
+    <t>Peter Alexander Scheweizer</t>
+  </si>
+  <si>
+    <t>Montar campo curbix - Corte soqueira</t>
+  </si>
+  <si>
+    <t>PM-306820</t>
+  </si>
+  <si>
+    <t>José Carlos Oliveira Fernandes Neto (Ticão)</t>
+  </si>
+  <si>
+    <t>Apresentar projeto pronto TechSolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodar áreas da região </t>
+  </si>
+  <si>
+    <t>PM-310659</t>
+  </si>
+  <si>
+    <t>Haroldo De Sa Quartin Barbosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prospecção </t>
+  </si>
+  <si>
+    <t>PM-306752</t>
+  </si>
+  <si>
+    <t>Dário Ferreira Guarita Filho</t>
+  </si>
+  <si>
+    <t>Avaliação corte soqueira com curbix</t>
+  </si>
+  <si>
+    <t>Massa_01</t>
+  </si>
+  <si>
+    <t>Massa_Camda_Araçatuba, SP, Brasil</t>
   </si>
 </sst>
 </file>
@@ -690,6 +834,9 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -699,20 +846,17 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -759,8 +903,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD824FFE-A43B-4C56-B4A9-BB14C8D29EB8}" name="fVisitas" displayName="fVisitas" ref="A1:R140" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:R140" xr:uid="{FD824FFE-A43B-4C56-B4A9-BB14C8D29EB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD824FFE-A43B-4C56-B4A9-BB14C8D29EB8}" name="fVisitas" displayName="fVisitas" ref="A1:R176" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:R176" xr:uid="{FD824FFE-A43B-4C56-B4A9-BB14C8D29EB8}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4FEDE3C2-9F29-4FED-B846-0E12E78E5DAE}" name="codigo_responsavel"/>
     <tableColumn id="2" xr3:uid="{614E322F-DE36-4223-A5F9-18076D2E1DD6}" name="responsavel"/>
@@ -769,24 +913,14 @@
     <tableColumn id="5" xr3:uid="{BA5C54B0-C9A6-4039-AF92-76D90BB8A771}" name="meta_dias"/>
     <tableColumn id="6" xr3:uid="{35348B20-6BB7-43F0-827F-65BD042E65CC}" name="responsavel_proxima"/>
     <tableColumn id="7" xr3:uid="{393E59BC-C87B-4ED9-B88B-4E157DBC7D95}" name="data_planejada" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{FA15157C-6745-4819-A9DA-E1960FAA2D3E}" name="dia_semana">
-      <calculatedColumnFormula>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="8" xr3:uid="{FA15157C-6745-4819-A9DA-E1960FAA2D3E}" name="dia_semana"/>
     <tableColumn id="9" xr3:uid="{4944A550-37CF-4DC6-9E69-A5984D52C892}" name="data_realizada" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{ED358A85-7F02-4801-96A8-AF5D154CC43E}" name="status"/>
-    <tableColumn id="11" xr3:uid="{ABF2688C-55E0-44EA-9259-242B11A637E1}" name="dias_sem" dataDxfId="0">
-      <calculatedColumnFormula>IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="11" xr3:uid="{ABF2688C-55E0-44EA-9259-242B11A637E1}" name="dias_sem" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{518C51C7-6BDB-49F6-993D-B3B42B4D92E3}" name="safra"/>
-    <tableColumn id="13" xr3:uid="{7704713B-F9E2-4FEC-A79C-AC89EACD2FBA}" name="ano">
-      <calculatedColumnFormula>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{794BCCF4-AB84-4B8E-B916-554756E64D23}" name="mes">
-      <calculatedColumnFormula>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{C5312B39-D65B-4EF5-8739-330BC2E8EB89}" name="data_proxima" dataDxfId="1">
-      <calculatedColumnFormula>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="13" xr3:uid="{7704713B-F9E2-4FEC-A79C-AC89EACD2FBA}" name="ano"/>
+    <tableColumn id="14" xr3:uid="{794BCCF4-AB84-4B8E-B916-554756E64D23}" name="mes"/>
+    <tableColumn id="15" xr3:uid="{C5312B39-D65B-4EF5-8739-330BC2E8EB89}" name="data_proxima" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{E3C22562-681D-424E-BE3D-745F9A0979E6}" name="status_proxima"/>
     <tableColumn id="17" xr3:uid="{3EE6180D-EA0D-4735-8967-553890B67660}" name="foco"/>
     <tableColumn id="18" xr3:uid="{B6CD1952-642D-4F1F-95ED-3BF83F7BA1F4}" name="comentarios"/>
@@ -1082,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1112,58 +1246,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
@@ -1188,38 +1322,23 @@
       <c r="G2" s="3">
         <v>45803</v>
       </c>
-      <c r="H2" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H2" t="s">
+        <v>192</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O2" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O2" s="3"/>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -1244,38 +1363,23 @@
       <c r="G3" s="3">
         <v>45810</v>
       </c>
-      <c r="H3" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H3" t="s">
+        <v>192</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K3" s="4"/>
       <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O3" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O3" s="3"/>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -1300,38 +1404,23 @@
       <c r="G4" s="3">
         <v>45812</v>
       </c>
-      <c r="H4" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H4" t="s">
+        <v>193</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K4" s="4"/>
       <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O4" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O4" s="3"/>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -1356,38 +1445,23 @@
       <c r="G5" s="3">
         <v>45797</v>
       </c>
-      <c r="H5" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H5" t="s">
+        <v>194</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K5" s="4"/>
       <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O5" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O5" s="3"/>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
@@ -1412,38 +1486,23 @@
       <c r="G6" s="3">
         <v>45811</v>
       </c>
-      <c r="H6" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H6" t="s">
+        <v>194</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K6" s="4"/>
       <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O6" s="3"/>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -1468,38 +1527,23 @@
       <c r="G7" s="3">
         <v>45813</v>
       </c>
-      <c r="H7" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H7" t="s">
+        <v>195</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O7" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O7" s="3"/>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
@@ -1524,38 +1568,23 @@
       <c r="G8" s="3">
         <v>45793</v>
       </c>
-      <c r="H8" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H8" t="s">
+        <v>196</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O8" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O8" s="3"/>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
@@ -1580,38 +1609,23 @@
       <c r="G9" s="3">
         <v>45805</v>
       </c>
-      <c r="H9" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H9" t="s">
+        <v>193</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O9" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O9" s="3"/>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
@@ -1636,38 +1650,23 @@
       <c r="G10" s="3">
         <v>45807</v>
       </c>
-      <c r="H10" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H10" t="s">
+        <v>196</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K10" s="4"/>
       <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O10" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O10" s="3"/>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
@@ -1678,10 +1677,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -1692,37 +1691,35 @@
       <c r="G11" s="3">
         <v>45847</v>
       </c>
-      <c r="H11" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H11" t="s">
+        <v>193</v>
       </c>
       <c r="I11" s="3">
         <v>45846</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11">
+        <v>2025</v>
+      </c>
+      <c r="N11">
         <v>7</v>
       </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N11">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
       <c r="O11" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45861</v>
       </c>
+      <c r="P11" t="s">
+        <v>177</v>
+      </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
@@ -1747,38 +1744,23 @@
       <c r="G12" s="3">
         <v>45805</v>
       </c>
-      <c r="H12" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H12" t="s">
+        <v>193</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O12" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O12" s="3"/>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
@@ -1803,40 +1785,35 @@
       <c r="G13" s="3">
         <v>45758</v>
       </c>
-      <c r="H13" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H13" t="s">
+        <v>196</v>
       </c>
       <c r="I13" s="3">
         <v>45756</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N13">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O13" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45826</v>
+        <v>45771</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -1861,40 +1838,35 @@
       <c r="G14" s="3">
         <v>45786</v>
       </c>
-      <c r="H14" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H14" t="s">
+        <v>196</v>
       </c>
       <c r="I14" s="3">
         <v>45782</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N14">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O14" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45826</v>
+        <v>45797</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
@@ -1919,40 +1891,35 @@
       <c r="G15" s="3">
         <v>45737</v>
       </c>
-      <c r="H15" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H15" t="s">
+        <v>196</v>
       </c>
       <c r="I15" s="3">
         <v>45737</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15">
+        <v>2025</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>45752</v>
+      </c>
+      <c r="P15" t="s">
         <v>73</v>
       </c>
-      <c r="M15">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N15">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45752</v>
-      </c>
-      <c r="P15" t="s">
-        <v>74</v>
-      </c>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -1977,38 +1944,23 @@
       <c r="G16" s="3">
         <v>45800</v>
       </c>
-      <c r="H16" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H16" t="s">
+        <v>196</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K16" s="4"/>
       <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O16" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O16" s="3"/>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
@@ -2033,40 +1985,35 @@
       <c r="G17" s="3">
         <v>45735</v>
       </c>
-      <c r="H17" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H17" t="s">
+        <v>193</v>
       </c>
       <c r="I17" s="3">
         <v>45735</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17">
+        <v>2025</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
+        <v>45750</v>
+      </c>
+      <c r="P17" t="s">
         <v>73</v>
       </c>
-      <c r="M17">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N17">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>3</v>
-      </c>
-      <c r="O17" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45750</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
@@ -2091,38 +2038,23 @@
       <c r="G18" s="3">
         <v>45740</v>
       </c>
-      <c r="H18" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H18" t="s">
+        <v>192</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K18" s="4"/>
       <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O18" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O18" s="3"/>
       <c r="P18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
@@ -2147,38 +2079,23 @@
       <c r="G19" s="3">
         <v>45806</v>
       </c>
-      <c r="H19" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H19" t="s">
+        <v>195</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K19" s="4"/>
       <c r="L19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O19" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O19" s="3"/>
       <c r="P19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
@@ -2203,40 +2120,35 @@
       <c r="G20" s="3">
         <v>45734</v>
       </c>
-      <c r="H20" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H20" t="s">
+        <v>194</v>
       </c>
       <c r="I20" s="3">
         <v>45734</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K20" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20">
+        <v>2025</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>45749</v>
+      </c>
+      <c r="P20" t="s">
         <v>73</v>
       </c>
-      <c r="M20">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N20">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45749</v>
-      </c>
-      <c r="P20" t="s">
-        <v>74</v>
-      </c>
       <c r="Q20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
@@ -2261,38 +2173,23 @@
       <c r="G21" s="3">
         <v>45790</v>
       </c>
-      <c r="H21" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H21" t="s">
+        <v>194</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K21" s="4"/>
       <c r="L21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M21" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N21" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O21" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O21" s="3"/>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
@@ -2317,147 +2214,117 @@
       <c r="G22" s="3">
         <v>45796</v>
       </c>
-      <c r="H22" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H22" t="s">
+        <v>192</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K22" s="4"/>
       <c r="L22" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O22" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O22" s="3"/>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E23">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G23" s="3">
-        <v>45848</v>
-      </c>
-      <c r="H23" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>45847</v>
+      </c>
+      <c r="H23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45849</v>
+      </c>
       <c r="J23" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
+      <c r="K23" s="4">
+        <v>14</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O23" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="M23">
+        <v>2025</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23" s="3">
+        <v>45864</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="Q23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
         <v>153</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>154</v>
       </c>
-      <c r="C24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" t="s">
-        <v>160</v>
-      </c>
       <c r="E24">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" s="3">
-        <v>45854</v>
-      </c>
-      <c r="H24" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+        <v>45846</v>
+      </c>
+      <c r="H24" t="s">
+        <v>194</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>45853</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K24" s="4"/>
       <c r="L24" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N24" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O24" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O24" s="3"/>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
@@ -2482,40 +2349,35 @@
       <c r="G25" s="3">
         <v>45736</v>
       </c>
-      <c r="H25" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H25" t="s">
+        <v>195</v>
       </c>
       <c r="I25" s="3">
         <v>45736</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25">
+        <v>2025</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>45751</v>
+      </c>
+      <c r="P25" t="s">
         <v>73</v>
       </c>
-      <c r="M25">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N25">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>3</v>
-      </c>
-      <c r="O25" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45751</v>
-      </c>
-      <c r="P25" t="s">
-        <v>74</v>
-      </c>
       <c r="Q25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
@@ -2540,38 +2402,23 @@
       <c r="G26" s="3">
         <v>45791</v>
       </c>
-      <c r="H26" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H26" t="s">
+        <v>193</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K26" s="4"/>
       <c r="L26" t="s">
-        <v>73</v>
-      </c>
-      <c r="M26" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O26" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O26" s="3"/>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
@@ -2596,38 +2443,23 @@
       <c r="G27" s="3">
         <v>45741</v>
       </c>
-      <c r="H27" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H27" t="s">
+        <v>194</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K27" s="4"/>
       <c r="L27" t="s">
-        <v>73</v>
-      </c>
-      <c r="M27" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N27" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O27" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O27" s="3"/>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
@@ -2652,38 +2484,23 @@
       <c r="G28" s="3">
         <v>45798</v>
       </c>
-      <c r="H28" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H28" t="s">
+        <v>193</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K28" s="4"/>
       <c r="L28" t="s">
-        <v>73</v>
-      </c>
-      <c r="M28" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O28" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O28" s="3"/>
       <c r="P28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
@@ -2708,203 +2525,182 @@
       <c r="G29" s="3">
         <v>45814</v>
       </c>
-      <c r="H29" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H29" t="s">
+        <v>196</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="L29" t="s">
-        <v>73</v>
-      </c>
-      <c r="M29" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N29" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O29" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O29" s="3"/>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
         <v>153</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>154</v>
       </c>
-      <c r="C30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
       <c r="E30">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G30" s="3">
-        <v>45849</v>
-      </c>
-      <c r="H30" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
-      </c>
-      <c r="I30" s="3"/>
+        <v>45854</v>
+      </c>
+      <c r="H30" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45856</v>
+      </c>
       <c r="J30" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
+      <c r="K30" s="4">
+        <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
-      </c>
-      <c r="M30" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O30" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="M30">
+        <v>2025</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30" s="3">
+        <v>45871</v>
       </c>
       <c r="P30" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="Q30" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E31">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G31" s="3">
-        <v>45848</v>
-      </c>
-      <c r="H31" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
-      </c>
-      <c r="I31" s="3"/>
+        <v>45846</v>
+      </c>
+      <c r="H31" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45846</v>
+      </c>
       <c r="J31" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
+      <c r="K31" s="4">
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
-      </c>
-      <c r="M31" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O31" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="M31">
+        <v>2025</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31" s="3">
+        <v>45861</v>
       </c>
       <c r="P31" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="Q31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E32">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G32" s="3">
-        <v>45855</v>
-      </c>
-      <c r="H32" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>45849</v>
+      </c>
+      <c r="H32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45849</v>
+      </c>
       <c r="J32" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="K32" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>45853</v>
+        <v>14</v>
       </c>
       <c r="L32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O32" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="M32">
+        <v>2025</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32" s="3">
+        <v>45864</v>
       </c>
       <c r="P32" t="s">
-        <v>74</v>
+        <v>187</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
@@ -2929,40 +2725,35 @@
       <c r="G33" s="3">
         <v>45737</v>
       </c>
-      <c r="H33" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H33" t="s">
+        <v>196</v>
       </c>
       <c r="I33" s="3">
         <v>45737</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K33" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M33">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N33">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O33" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45752</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
@@ -2987,40 +2778,35 @@
       <c r="G34" s="3">
         <v>45735</v>
       </c>
-      <c r="H34" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H34" t="s">
+        <v>193</v>
       </c>
       <c r="I34" s="3">
         <v>45736</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K34" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M34">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N34">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O34" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45832</v>
+        <v>45751</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
@@ -3045,40 +2831,35 @@
       <c r="G35" s="3">
         <v>45749</v>
       </c>
-      <c r="H35" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H35" t="s">
+        <v>193</v>
       </c>
       <c r="I35" s="3">
         <v>45769</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K35" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M35">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N35">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O35" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45832</v>
+        <v>45784</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
@@ -3103,40 +2884,35 @@
       <c r="G36" s="3">
         <v>45783</v>
       </c>
-      <c r="H36" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H36" t="s">
+        <v>194</v>
       </c>
       <c r="I36" s="3">
         <v>45783</v>
       </c>
       <c r="J36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M36">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N36">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O36" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45832</v>
+        <v>45798</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
@@ -3161,35 +2937,23 @@
       <c r="G37" s="3">
         <v>45854</v>
       </c>
-      <c r="H37" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H37" t="s">
+        <v>193</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" t="s">
-        <v>179</v>
-      </c>
-      <c r="K37" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>36</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K37" s="4"/>
       <c r="L37" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N37" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O37" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" t="s">
+        <v>177</v>
       </c>
       <c r="Q37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
@@ -3214,96 +2978,61 @@
       <c r="G38" s="3">
         <v>45799</v>
       </c>
-      <c r="H38" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H38" t="s">
+        <v>195</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" t="s">
-        <v>71</v>
-      </c>
-      <c r="K38" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K38" s="4"/>
       <c r="L38" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N38" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O38" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O38" s="3"/>
       <c r="P38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
         <v>172</v>
       </c>
-      <c r="D39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>174</v>
-      </c>
       <c r="G39" s="3">
-        <v>45847</v>
-      </c>
-      <c r="H39" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
-      </c>
-      <c r="I39" s="3">
-        <v>45849</v>
-      </c>
+        <v>45856</v>
+      </c>
+      <c r="H39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="3"/>
       <c r="J39" t="s">
-        <v>72</v>
-      </c>
-      <c r="K39" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K39" s="4"/>
       <c r="L39" t="s">
-        <v>73</v>
-      </c>
-      <c r="M39">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N39">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
-      <c r="O39" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45864</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O39" s="3"/>
       <c r="P39" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
@@ -3328,40 +3057,35 @@
       <c r="G40" s="3">
         <v>45740</v>
       </c>
-      <c r="H40" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H40" t="s">
+        <v>192</v>
       </c>
       <c r="I40" s="3">
         <v>45740</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M40">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N40">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O40" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45825</v>
+        <v>45755</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
@@ -3386,35 +3110,23 @@
       <c r="G41" s="3">
         <v>45845</v>
       </c>
-      <c r="H41" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H41" t="s">
+        <v>192</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" t="s">
-        <v>71</v>
-      </c>
-      <c r="K41" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K41" s="4"/>
       <c r="L41" t="s">
-        <v>73</v>
-      </c>
-      <c r="M41" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N41" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O41" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O41" s="3"/>
+      <c r="P41" t="s">
+        <v>177</v>
       </c>
       <c r="Q41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
@@ -3439,40 +3151,35 @@
       <c r="G42" s="3">
         <v>45736</v>
       </c>
-      <c r="H42" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H42" t="s">
+        <v>195</v>
       </c>
       <c r="I42" s="3">
         <v>45736</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K42" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M42">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N42">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O42" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45751</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
@@ -3497,38 +3204,23 @@
       <c r="G43" s="3">
         <v>45776</v>
       </c>
-      <c r="H43" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H43" t="s">
+        <v>194</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>117</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K43" s="4"/>
       <c r="L43" t="s">
-        <v>73</v>
-      </c>
-      <c r="M43" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N43" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O43" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O43" s="3"/>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
@@ -3553,38 +3245,23 @@
       <c r="G44" s="3">
         <v>45782</v>
       </c>
-      <c r="H44" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H44" t="s">
+        <v>192</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>117</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K44" s="4"/>
       <c r="L44" t="s">
-        <v>73</v>
-      </c>
-      <c r="M44" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N44" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O44" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O44" s="3"/>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
@@ -3609,40 +3286,35 @@
       <c r="G45" s="3">
         <v>45751</v>
       </c>
-      <c r="H45" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H45" t="s">
+        <v>196</v>
       </c>
       <c r="I45" s="3">
         <v>45750</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K45" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M45">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N45">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O45" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45848</v>
+        <v>45765</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
@@ -3667,35 +3339,23 @@
       <c r="G46" s="3">
         <v>45846</v>
       </c>
-      <c r="H46" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H46" t="s">
+        <v>194</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K46" s="4"/>
       <c r="L46" t="s">
-        <v>73</v>
-      </c>
-      <c r="M46" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N46" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O46" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" t="s">
+        <v>177</v>
       </c>
       <c r="Q46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
@@ -3720,35 +3380,23 @@
       <c r="G47" s="3">
         <v>45853</v>
       </c>
-      <c r="H47" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H47" t="s">
+        <v>194</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" t="s">
-        <v>179</v>
-      </c>
-      <c r="K47" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K47" s="4"/>
       <c r="L47" t="s">
-        <v>73</v>
-      </c>
-      <c r="M47" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N47" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O47" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="P47" t="s">
+        <v>177</v>
       </c>
       <c r="Q47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
@@ -3773,38 +3421,23 @@
       <c r="G48" s="3">
         <v>45777</v>
       </c>
-      <c r="H48" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H48" t="s">
+        <v>193</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" t="s">
-        <v>179</v>
-      </c>
-      <c r="K48" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K48" s="4"/>
       <c r="L48" t="s">
-        <v>73</v>
-      </c>
-      <c r="M48" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N48" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O48" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O48" s="3"/>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
@@ -3829,37 +3462,35 @@
       <c r="G49" s="3">
         <v>45847</v>
       </c>
-      <c r="H49" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H49" t="s">
+        <v>193</v>
       </c>
       <c r="I49" s="3">
         <v>45846</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K49" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
+        <v>10</v>
+      </c>
+      <c r="L49" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49">
+        <v>2025</v>
+      </c>
+      <c r="N49">
         <v>7</v>
       </c>
-      <c r="L49" t="s">
-        <v>73</v>
-      </c>
-      <c r="M49">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N49">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
       <c r="O49" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45861</v>
       </c>
+      <c r="P49" t="s">
+        <v>177</v>
+      </c>
       <c r="Q49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
@@ -3884,40 +3515,35 @@
       <c r="G50" s="3">
         <v>45750</v>
       </c>
-      <c r="H50" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H50" t="s">
+        <v>195</v>
       </c>
       <c r="I50" s="3">
         <v>45752</v>
       </c>
       <c r="J50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K50" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N50">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O50" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45776</v>
+        <v>45767</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
@@ -3942,207 +3568,155 @@
       <c r="G51" s="3">
         <v>45755</v>
       </c>
-      <c r="H51" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H51" t="s">
+        <v>194</v>
       </c>
       <c r="I51" s="3">
         <v>45761</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K51" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M51">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N51">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O51" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45776</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E52">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G52" s="3">
-        <v>45846</v>
-      </c>
-      <c r="H52" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+        <v>45848</v>
+      </c>
+      <c r="H52" t="s">
+        <v>195</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" t="s">
-        <v>71</v>
-      </c>
-      <c r="K52" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K52" s="4"/>
       <c r="L52" t="s">
-        <v>73</v>
-      </c>
-      <c r="M52" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N52" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O52" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O52" s="3"/>
       <c r="P52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E53">
         <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G53" s="3">
         <v>45854</v>
       </c>
-      <c r="H53" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H53" t="s">
+        <v>193</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" t="s">
-        <v>179</v>
-      </c>
-      <c r="K53" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>45853</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K53" s="4"/>
       <c r="L53" t="s">
+        <v>72</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="P53" t="s">
         <v>73</v>
-      </c>
-      <c r="M53" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N53" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O53" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
-      <c r="P53" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E54">
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G54" s="3">
-        <v>45846</v>
-      </c>
-      <c r="H54" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
-      </c>
-      <c r="I54" s="3">
-        <v>45846</v>
-      </c>
+        <v>45849</v>
+      </c>
+      <c r="H54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" s="3"/>
       <c r="J54" t="s">
-        <v>72</v>
-      </c>
-      <c r="K54" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K54" s="4"/>
       <c r="L54" t="s">
-        <v>73</v>
-      </c>
-      <c r="M54">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N54">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
-      <c r="O54" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45861</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O54" s="3"/>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="Q54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
@@ -4167,40 +3741,35 @@
       <c r="G55" s="3">
         <v>45735</v>
       </c>
-      <c r="H55" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H55" t="s">
+        <v>193</v>
       </c>
       <c r="I55" s="3">
         <v>45741</v>
       </c>
       <c r="J55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K55" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M55">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N55">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O55" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45828</v>
+        <v>45756</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
@@ -4225,40 +3794,35 @@
       <c r="G56" s="3">
         <v>45779</v>
       </c>
-      <c r="H56" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H56" t="s">
+        <v>196</v>
       </c>
       <c r="I56" s="3">
         <v>45775</v>
       </c>
       <c r="J56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K56" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M56">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N56">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O56" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45828</v>
+        <v>45790</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.45">
@@ -4283,38 +3847,23 @@
       <c r="G57" s="3">
         <v>45784</v>
       </c>
-      <c r="H57" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H57" t="s">
+        <v>193</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" t="s">
-        <v>179</v>
-      </c>
-      <c r="K57" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>40</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K57" s="4"/>
       <c r="L57" t="s">
-        <v>73</v>
-      </c>
-      <c r="M57" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N57" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O57" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O57" s="3"/>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
@@ -4339,35 +3888,23 @@
       <c r="G58" s="3">
         <v>45854</v>
       </c>
-      <c r="H58" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H58" t="s">
+        <v>193</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" t="s">
-        <v>179</v>
-      </c>
-      <c r="K58" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>40</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K58" s="4"/>
       <c r="L58" t="s">
-        <v>73</v>
-      </c>
-      <c r="M58" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N58" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O58" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O58" s="3"/>
+      <c r="P58" t="s">
+        <v>177</v>
       </c>
       <c r="Q58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.45">
@@ -4392,38 +3929,23 @@
       <c r="G59" s="3">
         <v>45779</v>
       </c>
-      <c r="H59" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H59" t="s">
+        <v>196</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" t="s">
-        <v>179</v>
-      </c>
-      <c r="K59" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>47</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K59" s="4"/>
       <c r="L59" t="s">
-        <v>73</v>
-      </c>
-      <c r="M59" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N59" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O59" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O59" s="3"/>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
@@ -4448,40 +3970,35 @@
       <c r="G60" s="3">
         <v>45784</v>
       </c>
-      <c r="H60" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H60" t="s">
+        <v>193</v>
       </c>
       <c r="I60" s="3">
         <v>45783</v>
       </c>
       <c r="J60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K60" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="L60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M60">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N60">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O60" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45821</v>
+        <v>45798</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.45">
@@ -4506,40 +4023,35 @@
       <c r="G61" s="3">
         <v>45736</v>
       </c>
-      <c r="H61" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H61" t="s">
+        <v>195</v>
       </c>
       <c r="I61" s="3">
         <v>45736</v>
       </c>
       <c r="J61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K61" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M61">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N61">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O61" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45847</v>
+        <v>45751</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
@@ -4564,38 +4076,23 @@
       <c r="G62" s="3">
         <v>45756</v>
       </c>
-      <c r="H62" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H62" t="s">
+        <v>193</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" t="s">
-        <v>179</v>
-      </c>
-      <c r="K62" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K62" s="4"/>
       <c r="L62" t="s">
-        <v>73</v>
-      </c>
-      <c r="M62" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N62" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O62" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O62" s="3"/>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
@@ -4620,38 +4117,23 @@
       <c r="G63" s="3">
         <v>45776</v>
       </c>
-      <c r="H63" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H63" t="s">
+        <v>194</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" t="s">
-        <v>179</v>
-      </c>
-      <c r="K63" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K63" s="4"/>
       <c r="L63" t="s">
-        <v>73</v>
-      </c>
-      <c r="M63" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N63" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O63" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O63" s="3"/>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
@@ -4676,38 +4158,23 @@
       <c r="G64" s="3">
         <v>45782</v>
       </c>
-      <c r="H64" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H64" t="s">
+        <v>192</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K64" s="4"/>
       <c r="L64" t="s">
-        <v>73</v>
-      </c>
-      <c r="M64" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N64" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O64" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O64" s="3"/>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
@@ -4732,38 +4199,23 @@
       <c r="G65" s="3">
         <v>45734</v>
       </c>
-      <c r="H65" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H65" t="s">
+        <v>194</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" t="s">
-        <v>71</v>
-      </c>
-      <c r="K65" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K65" s="4"/>
       <c r="L65" t="s">
-        <v>73</v>
-      </c>
-      <c r="M65" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N65" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O65" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O65" s="3"/>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
@@ -4788,38 +4240,23 @@
       <c r="G66" s="3">
         <v>45741</v>
       </c>
-      <c r="H66" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H66" t="s">
+        <v>194</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" t="s">
-        <v>179</v>
-      </c>
-      <c r="K66" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K66" s="4"/>
       <c r="L66" t="s">
-        <v>73</v>
-      </c>
-      <c r="M66" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N66" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O66" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O66" s="3"/>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
@@ -4844,40 +4281,35 @@
       <c r="G67" s="3">
         <v>45757</v>
       </c>
-      <c r="H67" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H67" t="s">
+        <v>195</v>
       </c>
       <c r="I67" s="3">
         <v>45758</v>
       </c>
       <c r="J67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K67" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M67">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N67">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O67" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45857</v>
+        <v>45773</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
@@ -4902,38 +4334,23 @@
       <c r="G68" s="3">
         <v>45785</v>
       </c>
-      <c r="H68" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H68" t="s">
+        <v>195</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" t="s">
+        <v>177</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" t="s">
+        <v>72</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="P68" t="s">
         <v>179</v>
       </c>
-      <c r="K68" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
-      </c>
-      <c r="L68" t="s">
-        <v>73</v>
-      </c>
-      <c r="M68" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N68" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O68" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
-      <c r="P68" t="s">
-        <v>182</v>
-      </c>
       <c r="Q68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.45">
@@ -4958,35 +4375,23 @@
       <c r="G69" s="3">
         <v>45849</v>
       </c>
-      <c r="H69" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H69" t="s">
+        <v>196</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" t="s">
-        <v>71</v>
-      </c>
-      <c r="K69" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K69" s="4"/>
       <c r="L69" t="s">
-        <v>73</v>
-      </c>
-      <c r="M69" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N69" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O69" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" t="s">
+        <v>177</v>
       </c>
       <c r="Q69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.45">
@@ -5011,35 +4416,23 @@
       <c r="G70" s="3">
         <v>45856</v>
       </c>
-      <c r="H70" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H70" t="s">
+        <v>196</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" t="s">
-        <v>179</v>
-      </c>
-      <c r="K70" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K70" s="4"/>
       <c r="L70" t="s">
-        <v>73</v>
-      </c>
-      <c r="M70" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N70" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O70" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" t="s">
+        <v>177</v>
       </c>
       <c r="Q70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.45">
@@ -5064,40 +4457,35 @@
       <c r="G71" s="3">
         <v>45736</v>
       </c>
-      <c r="H71" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H71" t="s">
+        <v>195</v>
       </c>
       <c r="I71" s="3">
         <v>45736</v>
       </c>
       <c r="J71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K71" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M71">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N71">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O71" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45751</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.45">
@@ -5122,38 +4510,23 @@
       <c r="G72" s="3">
         <v>45777</v>
       </c>
-      <c r="H72" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H72" t="s">
+        <v>193</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" t="s">
-        <v>179</v>
-      </c>
-      <c r="K72" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>68</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K72" s="4"/>
       <c r="L72" t="s">
-        <v>73</v>
-      </c>
-      <c r="M72" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N72" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O72" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O72" s="3"/>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.45">
@@ -5178,40 +4551,35 @@
       <c r="G73" s="3">
         <v>45783</v>
       </c>
-      <c r="H73" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H73" t="s">
+        <v>194</v>
       </c>
       <c r="I73" s="3">
         <v>45785</v>
       </c>
       <c r="J73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K73" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M73">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N73">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O73" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45800</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.45">
@@ -5236,38 +4604,23 @@
       <c r="G74" s="3">
         <v>45792</v>
       </c>
-      <c r="H74" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H74" t="s">
+        <v>195</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" t="s">
-        <v>71</v>
-      </c>
-      <c r="K74" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K74" s="4"/>
       <c r="L74" t="s">
-        <v>73</v>
-      </c>
-      <c r="M74" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N74" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O74" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O74" s="3"/>
       <c r="P74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.45">
@@ -5292,149 +4645,102 @@
       <c r="G75" s="3">
         <v>45804</v>
       </c>
-      <c r="H75" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H75" t="s">
+        <v>194</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" t="s">
-        <v>71</v>
-      </c>
-      <c r="K75" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K75" s="4"/>
       <c r="L75" t="s">
-        <v>73</v>
-      </c>
-      <c r="M75" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N75" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O75" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O75" s="3"/>
       <c r="P75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E76">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G76" s="3">
-        <v>45849</v>
-      </c>
-      <c r="H76" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
-      </c>
-      <c r="I76" s="3">
-        <v>45849</v>
-      </c>
+        <v>45848</v>
+      </c>
+      <c r="H76" t="s">
+        <v>195</v>
+      </c>
+      <c r="I76" s="3"/>
       <c r="J76" t="s">
-        <v>72</v>
-      </c>
-      <c r="K76" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K76" s="4"/>
       <c r="L76" t="s">
-        <v>73</v>
-      </c>
-      <c r="M76">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N76">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
-      <c r="O76" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45864</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O76" s="3"/>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="Q76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E77">
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G77" s="3">
-        <v>45856</v>
-      </c>
-      <c r="H77" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+        <v>45855</v>
+      </c>
+      <c r="H77" t="s">
+        <v>195</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" t="s">
-        <v>179</v>
-      </c>
-      <c r="K77" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>45853</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K77" s="4"/>
       <c r="L77" t="s">
+        <v>72</v>
+      </c>
+      <c r="O77" s="3"/>
+      <c r="P77" t="s">
         <v>73</v>
-      </c>
-      <c r="M77" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N77" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O77" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
-      <c r="P77" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.45">
@@ -5459,40 +4765,35 @@
       <c r="G78" s="3">
         <v>45737</v>
       </c>
-      <c r="H78" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H78" t="s">
+        <v>196</v>
       </c>
       <c r="I78" s="3">
         <v>45734</v>
       </c>
       <c r="J78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K78" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M78">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N78">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>3</v>
       </c>
       <c r="O78" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45861</v>
+        <v>45749</v>
       </c>
       <c r="P78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.45">
@@ -5517,38 +4818,23 @@
       <c r="G79" s="3">
         <v>45747</v>
       </c>
-      <c r="H79" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H79" t="s">
+        <v>192</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" t="s">
-        <v>179</v>
-      </c>
-      <c r="K79" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K79" s="4"/>
       <c r="L79" t="s">
-        <v>73</v>
-      </c>
-      <c r="M79" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N79" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O79" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O79" s="3"/>
       <c r="P79" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.45">
@@ -5573,40 +4859,35 @@
       <c r="G80" s="3">
         <v>45754</v>
       </c>
-      <c r="H80" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H80" t="s">
+        <v>192</v>
       </c>
       <c r="I80" s="3">
         <v>45755</v>
       </c>
       <c r="J80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K80" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M80">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N80">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>4</v>
       </c>
       <c r="O80" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45861</v>
+        <v>45770</v>
       </c>
       <c r="P80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.45">
@@ -5631,35 +4912,23 @@
       <c r="G81" s="3">
         <v>45852</v>
       </c>
-      <c r="H81" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H81" t="s">
+        <v>192</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" t="s">
-        <v>179</v>
-      </c>
-      <c r="K81" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>35</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K81" s="4"/>
       <c r="L81" t="s">
-        <v>73</v>
-      </c>
-      <c r="M81" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N81" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O81" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O81" s="3"/>
+      <c r="P81" t="s">
+        <v>177</v>
       </c>
       <c r="Q81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.45">
@@ -5684,37 +4953,35 @@
       <c r="G82" s="3">
         <v>45789</v>
       </c>
-      <c r="H82" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H82" t="s">
+        <v>192</v>
       </c>
       <c r="I82" s="3">
         <v>45789</v>
       </c>
       <c r="J82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K82" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M82">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N82">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O82" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45828</v>
+        <v>45804</v>
+      </c>
+      <c r="P82" t="s">
+        <v>177</v>
       </c>
       <c r="Q82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.45">
@@ -5739,35 +5006,23 @@
       <c r="G83" s="3">
         <v>45790</v>
       </c>
-      <c r="H83" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H83" t="s">
+        <v>194</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" t="s">
-        <v>179</v>
-      </c>
-      <c r="K83" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K83" s="4"/>
       <c r="L83" t="s">
-        <v>73</v>
-      </c>
-      <c r="M83" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N83" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O83" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O83" s="3"/>
+      <c r="P83" t="s">
+        <v>177</v>
       </c>
       <c r="Q83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.45">
@@ -5792,37 +5047,35 @@
       <c r="G84" s="3">
         <v>45791</v>
       </c>
-      <c r="H84" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H84" t="s">
+        <v>193</v>
       </c>
       <c r="I84" s="3">
         <v>45791</v>
       </c>
       <c r="J84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K84" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M84">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N84">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O84" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45857</v>
+        <v>45806</v>
+      </c>
+      <c r="P84" t="s">
+        <v>177</v>
       </c>
       <c r="Q84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.45">
@@ -5847,37 +5100,35 @@
       <c r="G85" s="3">
         <v>45792</v>
       </c>
-      <c r="H85" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H85" t="s">
+        <v>195</v>
       </c>
       <c r="I85" s="3">
         <v>45791</v>
       </c>
       <c r="J85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K85" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M85">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N85">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O85" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45833</v>
+        <v>45806</v>
+      </c>
+      <c r="P85" t="s">
+        <v>177</v>
       </c>
       <c r="Q85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.45">
@@ -5902,35 +5153,23 @@
       <c r="G86" s="3">
         <v>45793</v>
       </c>
-      <c r="H86" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H86" t="s">
+        <v>196</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" t="s">
-        <v>179</v>
-      </c>
-      <c r="K86" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K86" s="4"/>
       <c r="L86" t="s">
-        <v>73</v>
-      </c>
-      <c r="M86" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N86" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O86" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O86" s="3"/>
+      <c r="P86" t="s">
+        <v>177</v>
       </c>
       <c r="Q86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.45">
@@ -5955,37 +5194,35 @@
       <c r="G87" s="3">
         <v>45796</v>
       </c>
-      <c r="H87" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H87" t="s">
+        <v>192</v>
       </c>
       <c r="I87" s="3">
         <v>45797</v>
       </c>
       <c r="J87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K87" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M87">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N87">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O87" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45847</v>
+        <v>45812</v>
+      </c>
+      <c r="P87" t="s">
+        <v>177</v>
       </c>
       <c r="Q87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.45">
@@ -6010,37 +5247,35 @@
       <c r="G88" s="3">
         <v>45797</v>
       </c>
-      <c r="H88" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H88" t="s">
+        <v>194</v>
       </c>
       <c r="I88" s="3">
         <v>45799</v>
       </c>
       <c r="J88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K88" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M88">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N88">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O88" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45848</v>
+        <v>45814</v>
+      </c>
+      <c r="P88" t="s">
+        <v>177</v>
       </c>
       <c r="Q88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.45">
@@ -6065,37 +5300,35 @@
       <c r="G89" s="3">
         <v>45798</v>
       </c>
-      <c r="H89" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H89" t="s">
+        <v>193</v>
       </c>
       <c r="I89" s="3">
         <v>45796</v>
       </c>
       <c r="J89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K89" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M89">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N89">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O89" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45832</v>
+        <v>45811</v>
+      </c>
+      <c r="P89" t="s">
+        <v>177</v>
       </c>
       <c r="Q89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.45">
@@ -6120,35 +5353,23 @@
       <c r="G90" s="3">
         <v>45799</v>
       </c>
-      <c r="H90" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H90" t="s">
+        <v>195</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" t="s">
-        <v>179</v>
-      </c>
-      <c r="K90" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>47</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K90" s="4"/>
       <c r="L90" t="s">
-        <v>73</v>
-      </c>
-      <c r="M90" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N90" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O90" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O90" s="3"/>
+      <c r="P90" t="s">
+        <v>177</v>
       </c>
       <c r="Q90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.45">
@@ -6173,35 +5394,23 @@
       <c r="G91" s="3">
         <v>45800</v>
       </c>
-      <c r="H91" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H91" t="s">
+        <v>196</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" t="s">
-        <v>179</v>
-      </c>
-      <c r="K91" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K91" s="4"/>
       <c r="L91" t="s">
-        <v>73</v>
-      </c>
-      <c r="M91" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N91" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O91" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O91" s="3"/>
+      <c r="P91" t="s">
+        <v>177</v>
       </c>
       <c r="Q91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.45">
@@ -6226,37 +5435,35 @@
       <c r="G92" s="3">
         <v>45803</v>
       </c>
-      <c r="H92" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H92" t="s">
+        <v>192</v>
       </c>
       <c r="I92" s="3">
         <v>45803</v>
       </c>
       <c r="J92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K92" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M92">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N92">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O92" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45828</v>
+        <v>45818</v>
+      </c>
+      <c r="P92" t="s">
+        <v>177</v>
       </c>
       <c r="Q92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.45">
@@ -6281,35 +5488,23 @@
       <c r="G93" s="3">
         <v>45804</v>
       </c>
-      <c r="H93" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H93" t="s">
+        <v>194</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" t="s">
-        <v>179</v>
-      </c>
-      <c r="K93" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>35</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K93" s="4"/>
       <c r="L93" t="s">
-        <v>73</v>
-      </c>
-      <c r="M93" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N93" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O93" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O93" s="3"/>
+      <c r="P93" t="s">
+        <v>177</v>
       </c>
       <c r="Q93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.45">
@@ -6334,37 +5529,35 @@
       <c r="G94" s="3">
         <v>45805</v>
       </c>
-      <c r="H94" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H94" t="s">
+        <v>193</v>
       </c>
       <c r="I94" s="3">
         <v>45806</v>
       </c>
       <c r="J94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K94" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="L94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M94">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N94">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O94" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45821</v>
       </c>
+      <c r="P94" t="s">
+        <v>177</v>
+      </c>
       <c r="Q94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.45">
@@ -6389,37 +5582,35 @@
       <c r="G95" s="3">
         <v>45806</v>
       </c>
-      <c r="H95" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H95" t="s">
+        <v>195</v>
       </c>
       <c r="I95" s="3">
         <v>45805</v>
       </c>
       <c r="J95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K95" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M95">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N95">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>5</v>
       </c>
       <c r="O95" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45861</v>
+        <v>45820</v>
+      </c>
+      <c r="P95" t="s">
+        <v>177</v>
       </c>
       <c r="Q95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.45">
@@ -6444,37 +5635,35 @@
       <c r="G96" s="3">
         <v>45807</v>
       </c>
-      <c r="H96" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H96" t="s">
+        <v>196</v>
       </c>
       <c r="I96" s="3">
         <v>45810</v>
       </c>
       <c r="J96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K96" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M96">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N96">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O96" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45825</v>
       </c>
+      <c r="P96" t="s">
+        <v>177</v>
+      </c>
       <c r="Q96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.45">
@@ -6499,37 +5688,35 @@
       <c r="G97" s="3">
         <v>45810</v>
       </c>
-      <c r="H97" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H97" t="s">
+        <v>192</v>
       </c>
       <c r="I97" s="3">
         <v>45811</v>
       </c>
       <c r="J97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K97" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M97">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N97">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O97" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45826</v>
       </c>
+      <c r="P97" t="s">
+        <v>177</v>
+      </c>
       <c r="Q97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.45">
@@ -6554,37 +5741,35 @@
       <c r="G98" s="3">
         <v>45811</v>
       </c>
-      <c r="H98" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H98" t="s">
+        <v>194</v>
       </c>
       <c r="I98" s="3">
         <v>45814</v>
       </c>
       <c r="J98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K98" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M98">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N98">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O98" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45847</v>
+        <v>45829</v>
+      </c>
+      <c r="P98" t="s">
+        <v>177</v>
       </c>
       <c r="Q98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.45">
@@ -6609,35 +5794,23 @@
       <c r="G99" s="3">
         <v>45812</v>
       </c>
-      <c r="H99" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H99" t="s">
+        <v>193</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" t="s">
-        <v>179</v>
-      </c>
-      <c r="K99" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K99" s="4"/>
       <c r="L99" t="s">
-        <v>73</v>
-      </c>
-      <c r="M99" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N99" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O99" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O99" s="3"/>
+      <c r="P99" t="s">
+        <v>177</v>
       </c>
       <c r="Q99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.45">
@@ -6662,37 +5835,35 @@
       <c r="G100" s="3">
         <v>45813</v>
       </c>
-      <c r="H100" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H100" t="s">
+        <v>195</v>
       </c>
       <c r="I100" s="3">
         <v>45813</v>
       </c>
       <c r="J100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K100" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M100">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N100">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O100" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45828</v>
       </c>
+      <c r="P100" t="s">
+        <v>177</v>
+      </c>
       <c r="Q100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.45">
@@ -6717,37 +5888,23 @@
       <c r="G101" s="3">
         <v>45814</v>
       </c>
-      <c r="H101" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="H101" t="s">
+        <v>196</v>
+      </c>
+      <c r="I101" s="3"/>
       <c r="J101" t="s">
-        <v>179</v>
-      </c>
-      <c r="K101" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>33</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K101" s="4"/>
       <c r="L101" t="s">
-        <v>73</v>
-      </c>
-      <c r="M101" t="e">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N101" t="e">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O101" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O101" s="3"/>
+      <c r="P101" t="s">
+        <v>177</v>
       </c>
       <c r="Q101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.45">
@@ -6772,37 +5929,35 @@
       <c r="G102" s="3">
         <v>45817</v>
       </c>
-      <c r="H102" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H102" t="s">
+        <v>192</v>
       </c>
       <c r="I102" s="3">
         <v>45817</v>
       </c>
       <c r="J102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K102" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M102">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N102">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O102" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45832</v>
       </c>
+      <c r="P102" t="s">
+        <v>177</v>
+      </c>
       <c r="Q102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.45">
@@ -6827,35 +5982,23 @@
       <c r="G103" s="3">
         <v>45818</v>
       </c>
-      <c r="H103" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H103" t="s">
+        <v>194</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" t="s">
-        <v>179</v>
-      </c>
-      <c r="K103" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K103" s="4"/>
       <c r="L103" t="s">
-        <v>73</v>
-      </c>
-      <c r="M103" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N103" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O103" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O103" s="3"/>
+      <c r="P103" t="s">
+        <v>177</v>
       </c>
       <c r="Q103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.45">
@@ -6880,37 +6023,35 @@
       <c r="G104" s="3">
         <v>45819</v>
       </c>
-      <c r="H104" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H104" t="s">
+        <v>193</v>
       </c>
       <c r="I104" s="3">
         <v>45820</v>
       </c>
       <c r="J104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K104" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M104">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N104">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O104" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45835</v>
       </c>
+      <c r="P104" t="s">
+        <v>177</v>
+      </c>
       <c r="Q104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.45">
@@ -6935,35 +6076,23 @@
       <c r="G105" s="3">
         <v>45820</v>
       </c>
-      <c r="H105" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H105" t="s">
+        <v>195</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" t="s">
-        <v>179</v>
-      </c>
-      <c r="K105" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K105" s="4"/>
       <c r="L105" t="s">
-        <v>73</v>
-      </c>
-      <c r="M105" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N105" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O105" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O105" s="3"/>
+      <c r="P105" t="s">
+        <v>177</v>
       </c>
       <c r="Q105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.45">
@@ -6988,37 +6117,35 @@
       <c r="G106" s="3">
         <v>45821</v>
       </c>
-      <c r="H106" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H106" t="s">
+        <v>196</v>
       </c>
       <c r="I106" s="3">
         <v>45818</v>
       </c>
       <c r="J106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K106" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M106">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N106">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O106" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45833</v>
       </c>
+      <c r="P106" t="s">
+        <v>177</v>
+      </c>
       <c r="Q106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.45">
@@ -7043,35 +6170,23 @@
       <c r="G107" s="3">
         <v>45824</v>
       </c>
-      <c r="H107" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H107" t="s">
+        <v>192</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" t="s">
-        <v>179</v>
-      </c>
-      <c r="K107" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K107" s="4"/>
       <c r="L107" t="s">
-        <v>73</v>
-      </c>
-      <c r="M107" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N107" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O107" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O107" s="3"/>
+      <c r="P107" t="s">
+        <v>177</v>
       </c>
       <c r="Q107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.45">
@@ -7096,35 +6211,23 @@
       <c r="G108" s="3">
         <v>45825</v>
       </c>
-      <c r="H108" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H108" t="s">
+        <v>194</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" t="s">
-        <v>179</v>
-      </c>
-      <c r="K108" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K108" s="4"/>
       <c r="L108" t="s">
-        <v>73</v>
-      </c>
-      <c r="M108" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N108" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O108" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O108" s="3"/>
+      <c r="P108" t="s">
+        <v>177</v>
       </c>
       <c r="Q108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.45">
@@ -7149,37 +6252,35 @@
       <c r="G109" s="3">
         <v>45831</v>
       </c>
-      <c r="H109" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H109" t="s">
+        <v>192</v>
       </c>
       <c r="I109" s="3">
         <v>45831</v>
       </c>
       <c r="J109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K109" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M109">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N109">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O109" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45863</v>
+        <v>45846</v>
+      </c>
+      <c r="P109" t="s">
+        <v>177</v>
       </c>
       <c r="Q109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.45">
@@ -7204,35 +6305,23 @@
       <c r="G110" s="3">
         <v>45831</v>
       </c>
-      <c r="H110" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H110" t="s">
+        <v>192</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" t="s">
-        <v>179</v>
-      </c>
-      <c r="K110" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K110" s="4"/>
       <c r="L110" t="s">
-        <v>73</v>
-      </c>
-      <c r="M110" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N110" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O110" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O110" s="3"/>
+      <c r="P110" t="s">
+        <v>177</v>
       </c>
       <c r="Q110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.45">
@@ -7257,35 +6346,23 @@
       <c r="G111" s="3">
         <v>45831</v>
       </c>
-      <c r="H111" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H111" t="s">
+        <v>192</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" t="s">
-        <v>179</v>
-      </c>
-      <c r="K111" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K111" s="4"/>
       <c r="L111" t="s">
-        <v>73</v>
-      </c>
-      <c r="M111" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N111" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O111" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O111" s="3"/>
+      <c r="P111" t="s">
+        <v>177</v>
       </c>
       <c r="Q111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.45">
@@ -7310,35 +6387,23 @@
       <c r="G112" s="3">
         <v>45832</v>
       </c>
-      <c r="H112" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H112" t="s">
+        <v>194</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" t="s">
-        <v>179</v>
-      </c>
-      <c r="K112" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K112" s="4"/>
       <c r="L112" t="s">
-        <v>73</v>
-      </c>
-      <c r="M112" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N112" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O112" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O112" s="3"/>
+      <c r="P112" t="s">
+        <v>177</v>
       </c>
       <c r="Q112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.45">
@@ -7363,37 +6428,35 @@
       <c r="G113" s="3">
         <v>45832</v>
       </c>
-      <c r="H113" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H113" t="s">
+        <v>194</v>
       </c>
       <c r="I113" s="3">
         <v>45833</v>
       </c>
       <c r="J113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K113" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M113">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N113">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O113" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45848</v>
       </c>
+      <c r="P113" t="s">
+        <v>177</v>
+      </c>
       <c r="Q113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.45">
@@ -7418,35 +6481,23 @@
       <c r="G114" s="3">
         <v>45833</v>
       </c>
-      <c r="H114" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H114" t="s">
+        <v>193</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" t="s">
-        <v>179</v>
-      </c>
-      <c r="K114" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>33</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K114" s="4"/>
       <c r="L114" t="s">
-        <v>73</v>
-      </c>
-      <c r="M114" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N114" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O114" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O114" s="3"/>
+      <c r="P114" t="s">
+        <v>177</v>
       </c>
       <c r="Q114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.45">
@@ -7471,37 +6522,35 @@
       <c r="G115" s="3">
         <v>45833</v>
       </c>
-      <c r="H115" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H115" t="s">
+        <v>193</v>
       </c>
       <c r="I115" s="3">
         <v>45832</v>
       </c>
       <c r="J115" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K115" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M115">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N115">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O115" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45847</v>
       </c>
+      <c r="P115" t="s">
+        <v>177</v>
+      </c>
       <c r="Q115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.45">
@@ -7526,35 +6575,23 @@
       <c r="G116" s="3">
         <v>45834</v>
       </c>
-      <c r="H116" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H116" t="s">
+        <v>195</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" t="s">
-        <v>179</v>
-      </c>
-      <c r="K116" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K116" s="4"/>
       <c r="L116" t="s">
-        <v>73</v>
-      </c>
-      <c r="M116" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N116" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O116" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O116" s="3"/>
+      <c r="P116" t="s">
+        <v>177</v>
       </c>
       <c r="Q116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.45">
@@ -7579,35 +6616,23 @@
       <c r="G117" s="3">
         <v>45834</v>
       </c>
-      <c r="H117" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H117" t="s">
+        <v>195</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" t="s">
-        <v>179</v>
-      </c>
-      <c r="K117" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K117" s="4"/>
       <c r="L117" t="s">
-        <v>73</v>
-      </c>
-      <c r="M117" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N117" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O117" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O117" s="3"/>
+      <c r="P117" t="s">
+        <v>177</v>
       </c>
       <c r="Q117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.45">
@@ -7632,35 +6657,23 @@
       <c r="G118" s="3">
         <v>45835</v>
       </c>
-      <c r="H118" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H118" t="s">
+        <v>196</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" t="s">
-        <v>179</v>
-      </c>
-      <c r="K118" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K118" s="4"/>
       <c r="L118" t="s">
-        <v>73</v>
-      </c>
-      <c r="M118" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N118" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O118" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O118" s="3"/>
+      <c r="P118" t="s">
+        <v>177</v>
       </c>
       <c r="Q118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.45">
@@ -7685,37 +6698,35 @@
       <c r="G119" s="3">
         <v>45838</v>
       </c>
-      <c r="H119" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H119" t="s">
+        <v>192</v>
       </c>
       <c r="I119" s="3">
         <v>45838</v>
       </c>
       <c r="J119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K119" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M119">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N119">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>6</v>
       </c>
       <c r="O119" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45863</v>
+        <v>45853</v>
+      </c>
+      <c r="P119" t="s">
+        <v>177</v>
       </c>
       <c r="Q119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.45">
@@ -7740,40 +6751,38 @@
       <c r="G120" s="3">
         <v>45839</v>
       </c>
-      <c r="H120" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H120" t="s">
+        <v>194</v>
       </c>
       <c r="I120" s="3">
         <v>45842</v>
       </c>
       <c r="J120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K120" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M120">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N120">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>7</v>
       </c>
       <c r="O120" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45857</v>
       </c>
+      <c r="P120" t="s">
+        <v>177</v>
+      </c>
       <c r="Q120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R120" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.45">
@@ -7798,35 +6807,23 @@
       <c r="G121" s="3">
         <v>45839</v>
       </c>
-      <c r="H121" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H121" t="s">
+        <v>194</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" t="s">
-        <v>71</v>
-      </c>
-      <c r="K121" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K121" s="4"/>
       <c r="L121" t="s">
-        <v>73</v>
-      </c>
-      <c r="M121" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N121" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O121" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O121" s="3"/>
+      <c r="P121" t="s">
+        <v>177</v>
       </c>
       <c r="Q121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.45">
@@ -7851,37 +6848,35 @@
       <c r="G122" s="3">
         <v>45840</v>
       </c>
-      <c r="H122" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
+      <c r="H122" t="s">
+        <v>193</v>
       </c>
       <c r="I122" s="3">
         <v>45840</v>
       </c>
       <c r="J122" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K122" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M122">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N122">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>7</v>
       </c>
       <c r="O122" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45863</v>
+        <v>45855</v>
+      </c>
+      <c r="P122" t="s">
+        <v>177</v>
       </c>
       <c r="Q122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.45">
@@ -7906,37 +6901,35 @@
       <c r="G123" s="3">
         <v>45841</v>
       </c>
-      <c r="H123" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H123" t="s">
+        <v>195</v>
       </c>
       <c r="I123" s="3">
         <v>45841</v>
       </c>
       <c r="J123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K123" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M123">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N123">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>7</v>
       </c>
       <c r="O123" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45863</v>
+        <v>45856</v>
+      </c>
+      <c r="P123" t="s">
+        <v>177</v>
       </c>
       <c r="Q123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.45">
@@ -7961,35 +6954,23 @@
       <c r="G124" s="3">
         <v>45842</v>
       </c>
-      <c r="H124" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H124" t="s">
+        <v>196</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" t="s">
-        <v>71</v>
-      </c>
-      <c r="K124" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K124" s="4"/>
       <c r="L124" t="s">
-        <v>73</v>
-      </c>
-      <c r="M124" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N124" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O124" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O124" s="3"/>
+      <c r="P124" t="s">
+        <v>177</v>
       </c>
       <c r="Q124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.45">
@@ -8014,35 +6995,23 @@
       <c r="G125" s="3">
         <v>45842</v>
       </c>
-      <c r="H125" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H125" t="s">
+        <v>196</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" t="s">
-        <v>71</v>
-      </c>
-      <c r="K125" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K125" s="4"/>
       <c r="L125" t="s">
-        <v>73</v>
-      </c>
-      <c r="M125" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N125" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O125" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O125" s="3"/>
+      <c r="P125" t="s">
+        <v>177</v>
       </c>
       <c r="Q125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.45">
@@ -8067,37 +7036,35 @@
       <c r="G126" s="3">
         <v>45845</v>
       </c>
-      <c r="H126" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H126" t="s">
+        <v>192</v>
       </c>
       <c r="I126" s="3">
         <v>45846</v>
       </c>
       <c r="J126" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K126" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
+        <v>17</v>
+      </c>
+      <c r="L126" t="s">
+        <v>72</v>
+      </c>
+      <c r="M126">
+        <v>2025</v>
+      </c>
+      <c r="N126">
         <v>7</v>
       </c>
-      <c r="L126" t="s">
-        <v>73</v>
-      </c>
-      <c r="M126">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N126">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
       <c r="O126" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45861</v>
       </c>
+      <c r="P126" t="s">
+        <v>177</v>
+      </c>
       <c r="Q126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.45">
@@ -8122,37 +7089,35 @@
       <c r="G127" s="3">
         <v>45848</v>
       </c>
-      <c r="H127" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H127" t="s">
+        <v>195</v>
       </c>
       <c r="I127" s="3">
         <v>45848</v>
       </c>
       <c r="J127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K127" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M127">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>2025</v>
       </c>
       <c r="N127">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
         <v>7</v>
       </c>
       <c r="O127" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
         <v>45863</v>
       </c>
+      <c r="P127" t="s">
+        <v>177</v>
+      </c>
       <c r="Q127" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.45">
@@ -8177,35 +7142,23 @@
       <c r="G128" s="3">
         <v>45848</v>
       </c>
-      <c r="H128" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H128" t="s">
+        <v>195</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" t="s">
-        <v>71</v>
-      </c>
-      <c r="K128" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K128" s="4"/>
       <c r="L128" t="s">
-        <v>73</v>
-      </c>
-      <c r="M128" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N128" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O128" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O128" s="3"/>
+      <c r="P128" t="s">
+        <v>177</v>
       </c>
       <c r="Q128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.45">
@@ -8230,35 +7183,23 @@
       <c r="G129" s="3">
         <v>45848</v>
       </c>
-      <c r="H129" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H129" t="s">
+        <v>195</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" t="s">
-        <v>71</v>
-      </c>
-      <c r="K129" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K129" s="4"/>
       <c r="L129" t="s">
-        <v>73</v>
-      </c>
-      <c r="M129" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N129" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O129" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O129" s="3"/>
+      <c r="P129" t="s">
+        <v>177</v>
       </c>
       <c r="Q129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.45">
@@ -8283,35 +7224,35 @@
       <c r="G130" s="3">
         <v>45849</v>
       </c>
-      <c r="H130" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
-      </c>
-      <c r="I130" s="3"/>
+      <c r="H130" t="s">
+        <v>196</v>
+      </c>
+      <c r="I130" s="3">
+        <v>45852</v>
+      </c>
       <c r="J130" t="s">
         <v>71</v>
       </c>
-      <c r="K130" s="4" t="str">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v/>
+      <c r="K130" s="4">
+        <v>7</v>
       </c>
       <c r="L130" t="s">
-        <v>73</v>
-      </c>
-      <c r="M130" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N130" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O130" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="M130">
+        <v>2025</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130" s="3">
+        <v>45867</v>
+      </c>
+      <c r="P130" t="s">
+        <v>177</v>
       </c>
       <c r="Q130" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.45">
@@ -8336,35 +7277,23 @@
       <c r="G131" s="3">
         <v>45852</v>
       </c>
-      <c r="H131" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H131" t="s">
+        <v>192</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" t="s">
-        <v>179</v>
-      </c>
-      <c r="K131" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K131" s="4"/>
       <c r="L131" t="s">
-        <v>73</v>
-      </c>
-      <c r="M131" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N131" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O131" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O131" s="3"/>
+      <c r="P131" t="s">
+        <v>177</v>
       </c>
       <c r="Q131" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.45">
@@ -8389,35 +7318,35 @@
       <c r="G132" s="3">
         <v>45854</v>
       </c>
-      <c r="H132" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quarta-feira</v>
-      </c>
-      <c r="I132" s="3"/>
+      <c r="H132" t="s">
+        <v>193</v>
+      </c>
+      <c r="I132" s="3">
+        <v>45854</v>
+      </c>
       <c r="J132" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="K132" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="L132" t="s">
-        <v>73</v>
-      </c>
-      <c r="M132" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N132" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O132" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="M132">
+        <v>2025</v>
+      </c>
+      <c r="N132">
+        <v>7</v>
+      </c>
+      <c r="O132" s="3">
+        <v>45869</v>
+      </c>
+      <c r="P132" t="s">
+        <v>177</v>
       </c>
       <c r="Q132" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.45">
@@ -8442,35 +7371,23 @@
       <c r="G133" s="3">
         <v>45855</v>
       </c>
-      <c r="H133" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H133" t="s">
+        <v>195</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" t="s">
-        <v>179</v>
-      </c>
-      <c r="K133" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K133" s="4"/>
       <c r="L133" t="s">
-        <v>73</v>
-      </c>
-      <c r="M133" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N133" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O133" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O133" s="3"/>
+      <c r="P133" t="s">
+        <v>177</v>
       </c>
       <c r="Q133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.45">
@@ -8495,35 +7412,23 @@
       <c r="G134" s="3">
         <v>45855</v>
       </c>
-      <c r="H134" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H134" t="s">
+        <v>195</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" t="s">
-        <v>179</v>
-      </c>
-      <c r="K134" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K134" s="4"/>
       <c r="L134" t="s">
-        <v>73</v>
-      </c>
-      <c r="M134" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N134" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O134" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="O134" s="3"/>
+      <c r="P134" t="s">
+        <v>177</v>
       </c>
       <c r="Q134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.45">
@@ -8548,35 +7453,35 @@
       <c r="G135" s="3">
         <v>45856</v>
       </c>
-      <c r="H135" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
-      </c>
-      <c r="I135" s="3"/>
+      <c r="H135" t="s">
+        <v>196</v>
+      </c>
+      <c r="I135" s="3">
+        <v>45852</v>
+      </c>
       <c r="J135" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="K135" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L135" t="s">
-        <v>73</v>
-      </c>
-      <c r="M135" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N135" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O135" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="M135">
+        <v>2025</v>
+      </c>
+      <c r="N135">
+        <v>7</v>
+      </c>
+      <c r="O135" s="3">
+        <v>45867</v>
+      </c>
+      <c r="P135" t="s">
+        <v>177</v>
       </c>
       <c r="Q135" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.45">
@@ -8587,10 +7492,10 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E136">
         <v>15</v>
@@ -8601,40 +7506,35 @@
       <c r="G136" s="3">
         <v>45845</v>
       </c>
-      <c r="H136" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H136" t="s">
+        <v>192</v>
       </c>
       <c r="I136" s="3">
         <v>45845</v>
       </c>
       <c r="J136" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K136" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L136" t="s">
+        <v>72</v>
+      </c>
+      <c r="M136">
+        <v>2025</v>
+      </c>
+      <c r="N136">
+        <v>7</v>
+      </c>
+      <c r="O136" s="3">
+        <v>45860</v>
+      </c>
+      <c r="P136" t="s">
         <v>73</v>
       </c>
-      <c r="M136">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N136">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
-      <c r="O136" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45860</v>
-      </c>
-      <c r="P136" t="s">
-        <v>74</v>
-      </c>
       <c r="Q136" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.45">
@@ -8645,10 +7545,10 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E137">
         <v>15</v>
@@ -8659,43 +7559,38 @@
       <c r="G137" s="3">
         <v>45845</v>
       </c>
-      <c r="H137" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>segunda-feira</v>
+      <c r="H137" t="s">
+        <v>192</v>
       </c>
       <c r="I137" s="3">
         <v>45845</v>
       </c>
       <c r="J137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K137" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L137" t="s">
+        <v>72</v>
+      </c>
+      <c r="M137">
+        <v>2025</v>
+      </c>
+      <c r="N137">
+        <v>7</v>
+      </c>
+      <c r="O137" s="3">
+        <v>45860</v>
+      </c>
+      <c r="P137" t="s">
         <v>73</v>
       </c>
-      <c r="M137">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>2025</v>
-      </c>
-      <c r="N137">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v>7</v>
-      </c>
-      <c r="O137" s="3">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v>45860</v>
-      </c>
-      <c r="P137" t="s">
-        <v>74</v>
-      </c>
       <c r="Q137" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R137" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.45">
@@ -8706,10 +7601,10 @@
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E138">
         <v>15</v>
@@ -8720,38 +7615,23 @@
       <c r="G138" s="3">
         <v>45846</v>
       </c>
-      <c r="H138" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>terça-feira</v>
+      <c r="H138" t="s">
+        <v>194</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" t="s">
-        <v>179</v>
-      </c>
-      <c r="K138" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>45853</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K138" s="4"/>
       <c r="L138" t="s">
+        <v>72</v>
+      </c>
+      <c r="O138" s="3"/>
+      <c r="P138" t="s">
         <v>73</v>
       </c>
-      <c r="M138" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N138" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O138" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
-      <c r="P138" t="s">
-        <v>74</v>
-      </c>
       <c r="Q138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.45">
@@ -8762,10 +7642,10 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D139" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E139">
         <v>15</v>
@@ -8776,38 +7656,23 @@
       <c r="G139" s="3">
         <v>45848</v>
       </c>
-      <c r="H139" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>quinta-feira</v>
+      <c r="H139" t="s">
+        <v>195</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" t="s">
-        <v>179</v>
-      </c>
-      <c r="K139" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
-        <v>7</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K139" s="4"/>
       <c r="L139" t="s">
+        <v>72</v>
+      </c>
+      <c r="O139" s="3"/>
+      <c r="P139" t="s">
         <v>73</v>
       </c>
-      <c r="M139" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N139" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O139" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
-      <c r="P139" t="s">
-        <v>74</v>
-      </c>
       <c r="Q139" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.45">
@@ -8818,10 +7683,10 @@
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D140" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E140">
         <v>15</v>
@@ -8832,38 +7697,1604 @@
       <c r="G140" s="3">
         <v>45849</v>
       </c>
-      <c r="H140" t="str">
-        <f>TEXT(fVisitas[[#This Row],[data_planejada]],"dddd")</f>
-        <v>sexta-feira</v>
+      <c r="H140" t="s">
+        <v>196</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" t="s">
-        <v>179</v>
-      </c>
-      <c r="K140" s="4">
-        <f ca="1">IF(fVisitas[[#This Row],[status]]="Cancelado","",_xlfn.DAYS(TODAY(),_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])))</f>
+        <v>177</v>
+      </c>
+      <c r="K140" s="4"/>
+      <c r="L140" t="s">
+        <v>72</v>
+      </c>
+      <c r="O140" s="3"/>
+      <c r="P140" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>200</v>
+      </c>
+      <c r="D141" t="s">
+        <v>201</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H141" t="s">
+        <v>192</v>
+      </c>
+      <c r="I141" s="3"/>
+      <c r="J141" t="s">
+        <v>71</v>
+      </c>
+      <c r="K141" s="4"/>
+      <c r="O141" s="3"/>
+      <c r="P141" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" t="s">
+        <v>201</v>
+      </c>
+      <c r="F142" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="3">
         <v>45853</v>
       </c>
-      <c r="L140" t="s">
+      <c r="H142" t="s">
+        <v>194</v>
+      </c>
+      <c r="I142" s="3">
+        <v>45853</v>
+      </c>
+      <c r="J142" t="s">
+        <v>71</v>
+      </c>
+      <c r="K142" s="4">
+        <v>9</v>
+      </c>
+      <c r="L142" t="s">
+        <v>72</v>
+      </c>
+      <c r="M142">
+        <v>2025</v>
+      </c>
+      <c r="N142">
+        <v>7</v>
+      </c>
+      <c r="O142" s="3">
+        <v>45853</v>
+      </c>
+      <c r="P142" t="s">
         <v>73</v>
       </c>
-      <c r="M140" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",YEAR(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="N140" t="str">
-        <f>IF(fVisitas[[#This Row],[data_realizada]]="","",MONTH(fVisitas[[#This Row],[data_realizada]]))</f>
-        <v/>
-      </c>
-      <c r="O140" s="3" t="str">
-        <f>IF(fVisitas[[#This Row],[status]]="Realizado",_xlfn.MAXIFS(fVisitas[data_realizada],fVisitas[codigo_cliente],fVisitas[[#This Row],[codigo_cliente]])+fVisitas[[#This Row],[meta_dias]],"")</f>
-        <v/>
-      </c>
-      <c r="P140" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>116</v>
+      <c r="Q142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143" t="s">
+        <v>201</v>
+      </c>
+      <c r="F143" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H143" t="s">
+        <v>193</v>
+      </c>
+      <c r="I143" s="3">
+        <v>45854</v>
+      </c>
+      <c r="J143" t="s">
+        <v>71</v>
+      </c>
+      <c r="K143" s="4">
+        <v>9</v>
+      </c>
+      <c r="L143" t="s">
+        <v>72</v>
+      </c>
+      <c r="M143">
+        <v>2025</v>
+      </c>
+      <c r="N143">
+        <v>7</v>
+      </c>
+      <c r="O143" s="3">
+        <v>45854</v>
+      </c>
+      <c r="P143" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="3">
+        <v>45855</v>
+      </c>
+      <c r="H144" t="s">
+        <v>195</v>
+      </c>
+      <c r="I144" s="3">
+        <v>45855</v>
+      </c>
+      <c r="J144" t="s">
+        <v>71</v>
+      </c>
+      <c r="K144" s="4">
+        <v>7</v>
+      </c>
+      <c r="L144" t="s">
+        <v>72</v>
+      </c>
+      <c r="M144">
+        <v>2025</v>
+      </c>
+      <c r="N144">
+        <v>7</v>
+      </c>
+      <c r="O144" s="3">
+        <v>45855</v>
+      </c>
+      <c r="P144" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145">
+        <v>20</v>
+      </c>
+      <c r="F145" t="s">
+        <v>2</v>
+      </c>
+      <c r="G145" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H145" t="s">
+        <v>193</v>
+      </c>
+      <c r="I145" s="3">
+        <v>45852</v>
+      </c>
+      <c r="J145" t="s">
+        <v>71</v>
+      </c>
+      <c r="K145" s="4">
+        <v>11</v>
+      </c>
+      <c r="L145" t="s">
+        <v>72</v>
+      </c>
+      <c r="M145">
+        <v>2025</v>
+      </c>
+      <c r="N145">
+        <v>7</v>
+      </c>
+      <c r="O145" s="3">
+        <v>45872</v>
+      </c>
+      <c r="P145" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146">
+        <v>20</v>
+      </c>
+      <c r="F146" t="s">
+        <v>2</v>
+      </c>
+      <c r="G146" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H146" t="s">
+        <v>193</v>
+      </c>
+      <c r="I146" s="3">
+        <v>45852</v>
+      </c>
+      <c r="J146" t="s">
+        <v>71</v>
+      </c>
+      <c r="K146" s="4">
+        <v>11</v>
+      </c>
+      <c r="L146" t="s">
+        <v>72</v>
+      </c>
+      <c r="M146">
+        <v>2025</v>
+      </c>
+      <c r="N146">
+        <v>7</v>
+      </c>
+      <c r="O146" s="3">
+        <v>45872</v>
+      </c>
+      <c r="P146" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>159</v>
+      </c>
+      <c r="D147" t="s">
+        <v>206</v>
+      </c>
+      <c r="E147">
+        <v>20</v>
+      </c>
+      <c r="F147" t="s">
+        <v>2</v>
+      </c>
+      <c r="G147" s="3">
+        <v>45856</v>
+      </c>
+      <c r="H147" t="s">
+        <v>196</v>
+      </c>
+      <c r="I147" s="3">
+        <v>45852</v>
+      </c>
+      <c r="J147" t="s">
+        <v>71</v>
+      </c>
+      <c r="K147" s="4">
+        <v>11</v>
+      </c>
+      <c r="L147" t="s">
+        <v>72</v>
+      </c>
+      <c r="M147">
+        <v>2025</v>
+      </c>
+      <c r="N147">
+        <v>7</v>
+      </c>
+      <c r="O147" s="3">
+        <v>45872</v>
+      </c>
+      <c r="P147" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s">
+        <v>207</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H148" t="s">
+        <v>192</v>
+      </c>
+      <c r="I148" s="3">
+        <v>45853</v>
+      </c>
+      <c r="J148" t="s">
+        <v>71</v>
+      </c>
+      <c r="K148" s="4">
+        <v>10</v>
+      </c>
+      <c r="L148" t="s">
+        <v>72</v>
+      </c>
+      <c r="M148">
+        <v>2025</v>
+      </c>
+      <c r="N148">
+        <v>7</v>
+      </c>
+      <c r="O148" s="3">
+        <v>45873</v>
+      </c>
+      <c r="P148" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149">
+        <v>20</v>
+      </c>
+      <c r="F149" t="s">
+        <v>2</v>
+      </c>
+      <c r="G149" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H149" t="s">
+        <v>194</v>
+      </c>
+      <c r="I149" s="3">
+        <v>45853</v>
+      </c>
+      <c r="J149" t="s">
+        <v>71</v>
+      </c>
+      <c r="K149" s="4">
+        <v>10</v>
+      </c>
+      <c r="L149" t="s">
+        <v>72</v>
+      </c>
+      <c r="M149">
+        <v>2025</v>
+      </c>
+      <c r="N149">
+        <v>7</v>
+      </c>
+      <c r="O149" s="3">
+        <v>45873</v>
+      </c>
+      <c r="P149" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150">
+        <v>20</v>
+      </c>
+      <c r="F150" t="s">
+        <v>2</v>
+      </c>
+      <c r="G150" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H150" t="s">
+        <v>193</v>
+      </c>
+      <c r="I150" s="3">
+        <v>45854</v>
+      </c>
+      <c r="J150" t="s">
+        <v>71</v>
+      </c>
+      <c r="K150" s="4">
+        <v>9</v>
+      </c>
+      <c r="L150" t="s">
+        <v>72</v>
+      </c>
+      <c r="M150">
+        <v>2025</v>
+      </c>
+      <c r="N150">
+        <v>7</v>
+      </c>
+      <c r="O150" s="3">
+        <v>45874</v>
+      </c>
+      <c r="P150" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>2</v>
+      </c>
+      <c r="G151" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H151" t="s">
+        <v>193</v>
+      </c>
+      <c r="I151" s="3">
+        <v>45854</v>
+      </c>
+      <c r="J151" t="s">
+        <v>71</v>
+      </c>
+      <c r="K151" s="4">
+        <v>9</v>
+      </c>
+      <c r="L151" t="s">
+        <v>72</v>
+      </c>
+      <c r="M151">
+        <v>2025</v>
+      </c>
+      <c r="N151">
+        <v>7</v>
+      </c>
+      <c r="O151" s="3">
+        <v>45874</v>
+      </c>
+      <c r="P151" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>212</v>
+      </c>
+      <c r="E152">
+        <v>20</v>
+      </c>
+      <c r="F152" t="s">
+        <v>2</v>
+      </c>
+      <c r="G152" s="3">
+        <v>45855</v>
+      </c>
+      <c r="H152" t="s">
+        <v>195</v>
+      </c>
+      <c r="I152" s="3">
+        <v>45855</v>
+      </c>
+      <c r="J152" t="s">
+        <v>71</v>
+      </c>
+      <c r="K152" s="4">
+        <v>8</v>
+      </c>
+      <c r="L152" t="s">
+        <v>72</v>
+      </c>
+      <c r="M152">
+        <v>2025</v>
+      </c>
+      <c r="N152">
+        <v>7</v>
+      </c>
+      <c r="O152" s="3">
+        <v>45875</v>
+      </c>
+      <c r="P152" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>214</v>
+      </c>
+      <c r="E153">
+        <v>20</v>
+      </c>
+      <c r="F153" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="3">
+        <v>45855</v>
+      </c>
+      <c r="H153" t="s">
+        <v>195</v>
+      </c>
+      <c r="I153" s="3">
+        <v>45855</v>
+      </c>
+      <c r="J153" t="s">
+        <v>71</v>
+      </c>
+      <c r="K153" s="4">
+        <v>8</v>
+      </c>
+      <c r="L153" t="s">
+        <v>72</v>
+      </c>
+      <c r="M153">
+        <v>2025</v>
+      </c>
+      <c r="N153">
+        <v>7</v>
+      </c>
+      <c r="O153" s="3">
+        <v>45875</v>
+      </c>
+      <c r="P153" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="F154" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154" s="3">
+        <v>45856</v>
+      </c>
+      <c r="H154" t="s">
+        <v>196</v>
+      </c>
+      <c r="I154" s="3">
+        <v>45856</v>
+      </c>
+      <c r="J154" t="s">
+        <v>71</v>
+      </c>
+      <c r="K154" s="4">
+        <v>7</v>
+      </c>
+      <c r="L154" t="s">
+        <v>72</v>
+      </c>
+      <c r="M154">
+        <v>2025</v>
+      </c>
+      <c r="N154">
+        <v>7</v>
+      </c>
+      <c r="O154" s="3">
+        <v>45856</v>
+      </c>
+      <c r="P154" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="s">
+        <v>52</v>
+      </c>
+      <c r="E155">
+        <v>20</v>
+      </c>
+      <c r="F155" t="s">
+        <v>2</v>
+      </c>
+      <c r="G155" s="3">
+        <v>45859</v>
+      </c>
+      <c r="H155" t="s">
+        <v>192</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" t="s">
+        <v>177</v>
+      </c>
+      <c r="K155" s="4"/>
+      <c r="L155" t="s">
+        <v>72</v>
+      </c>
+      <c r="O155" s="3"/>
+      <c r="P155" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>37</v>
+      </c>
+      <c r="E156">
+        <v>20</v>
+      </c>
+      <c r="F156" t="s">
+        <v>2</v>
+      </c>
+      <c r="G156" s="3">
+        <v>45860</v>
+      </c>
+      <c r="H156" t="s">
+        <v>194</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="J156" t="s">
+        <v>177</v>
+      </c>
+      <c r="K156" s="4"/>
+      <c r="L156" t="s">
+        <v>72</v>
+      </c>
+      <c r="O156" s="3"/>
+      <c r="P156" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>218</v>
+      </c>
+      <c r="E157">
+        <v>20</v>
+      </c>
+      <c r="F157" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157" s="3">
+        <v>45860</v>
+      </c>
+      <c r="H157" t="s">
+        <v>194</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" t="s">
+        <v>177</v>
+      </c>
+      <c r="K157" s="4"/>
+      <c r="L157" t="s">
+        <v>72</v>
+      </c>
+      <c r="O157" s="3"/>
+      <c r="P157" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158">
+        <v>20</v>
+      </c>
+      <c r="F158" t="s">
+        <v>2</v>
+      </c>
+      <c r="G158" s="3">
+        <v>45860</v>
+      </c>
+      <c r="H158" t="s">
+        <v>194</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="J158" t="s">
+        <v>177</v>
+      </c>
+      <c r="K158" s="4"/>
+      <c r="L158" t="s">
+        <v>72</v>
+      </c>
+      <c r="O158" s="3"/>
+      <c r="P158" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="F159" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159" s="3">
+        <v>45861</v>
+      </c>
+      <c r="H159" t="s">
+        <v>193</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" t="s">
+        <v>177</v>
+      </c>
+      <c r="K159" s="4"/>
+      <c r="L159" t="s">
+        <v>72</v>
+      </c>
+      <c r="O159" s="3"/>
+      <c r="P159" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+      <c r="F160" t="s">
+        <v>2</v>
+      </c>
+      <c r="G160" s="3">
+        <v>45862</v>
+      </c>
+      <c r="H160" t="s">
+        <v>195</v>
+      </c>
+      <c r="I160" s="3"/>
+      <c r="J160" t="s">
+        <v>177</v>
+      </c>
+      <c r="K160" s="4"/>
+      <c r="L160" t="s">
+        <v>72</v>
+      </c>
+      <c r="O160" s="3"/>
+      <c r="P160" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E161">
+        <v>20</v>
+      </c>
+      <c r="F161" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" s="3">
+        <v>45862</v>
+      </c>
+      <c r="H161" t="s">
+        <v>195</v>
+      </c>
+      <c r="I161" s="3"/>
+      <c r="J161" t="s">
+        <v>177</v>
+      </c>
+      <c r="K161" s="4"/>
+      <c r="L161" t="s">
+        <v>72</v>
+      </c>
+      <c r="O161" s="3"/>
+      <c r="P161" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162" t="s">
+        <v>2</v>
+      </c>
+      <c r="G162" s="3">
+        <v>45863</v>
+      </c>
+      <c r="H162" t="s">
+        <v>196</v>
+      </c>
+      <c r="I162" s="3"/>
+      <c r="J162" t="s">
+        <v>177</v>
+      </c>
+      <c r="K162" s="4"/>
+      <c r="L162" t="s">
+        <v>72</v>
+      </c>
+      <c r="O162" s="3"/>
+      <c r="P162" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="F163" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" s="3">
+        <v>45863</v>
+      </c>
+      <c r="H163" t="s">
+        <v>196</v>
+      </c>
+      <c r="I163" s="3"/>
+      <c r="J163" t="s">
+        <v>177</v>
+      </c>
+      <c r="K163" s="4"/>
+      <c r="L163" t="s">
+        <v>72</v>
+      </c>
+      <c r="O163" s="3"/>
+      <c r="P163" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>203</v>
+      </c>
+      <c r="D164" t="s">
+        <v>204</v>
+      </c>
+      <c r="F164" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" s="3">
+        <v>45856</v>
+      </c>
+      <c r="H164" t="s">
+        <v>196</v>
+      </c>
+      <c r="I164" s="3">
+        <v>45856</v>
+      </c>
+      <c r="J164" t="s">
+        <v>71</v>
+      </c>
+      <c r="K164" s="4">
+        <v>7</v>
+      </c>
+      <c r="L164" t="s">
+        <v>72</v>
+      </c>
+      <c r="M164">
+        <v>2025</v>
+      </c>
+      <c r="N164">
+        <v>7</v>
+      </c>
+      <c r="O164" s="3">
+        <v>45856</v>
+      </c>
+      <c r="P164" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>203</v>
+      </c>
+      <c r="D165" t="s">
+        <v>204</v>
+      </c>
+      <c r="F165" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" s="3">
+        <v>45859</v>
+      </c>
+      <c r="H165" t="s">
+        <v>192</v>
+      </c>
+      <c r="I165" s="3"/>
+      <c r="J165" t="s">
+        <v>177</v>
+      </c>
+      <c r="K165" s="4"/>
+      <c r="L165" t="s">
+        <v>72</v>
+      </c>
+      <c r="O165" s="3"/>
+      <c r="P165" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>228</v>
+      </c>
+      <c r="D166" t="s">
+        <v>229</v>
+      </c>
+      <c r="F166" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166" s="3">
+        <v>45860</v>
+      </c>
+      <c r="H166" t="s">
+        <v>194</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" t="s">
+        <v>177</v>
+      </c>
+      <c r="K166" s="4"/>
+      <c r="L166" t="s">
+        <v>72</v>
+      </c>
+      <c r="O166" s="3"/>
+      <c r="P166" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>231</v>
+      </c>
+      <c r="D167" t="s">
+        <v>232</v>
+      </c>
+      <c r="F167" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" s="3">
+        <v>45861</v>
+      </c>
+      <c r="H167" t="s">
+        <v>193</v>
+      </c>
+      <c r="I167" s="3"/>
+      <c r="J167" t="s">
+        <v>177</v>
+      </c>
+      <c r="K167" s="4"/>
+      <c r="L167" t="s">
+        <v>72</v>
+      </c>
+      <c r="O167" s="3"/>
+      <c r="P167" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" t="s">
+        <v>59</v>
+      </c>
+      <c r="F168" t="s">
+        <v>3</v>
+      </c>
+      <c r="G168" s="3">
+        <v>45862</v>
+      </c>
+      <c r="H168" t="s">
+        <v>195</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" t="s">
+        <v>177</v>
+      </c>
+      <c r="K168" s="4"/>
+      <c r="L168" t="s">
+        <v>72</v>
+      </c>
+      <c r="O168" s="3"/>
+      <c r="P168" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" t="s">
+        <v>59</v>
+      </c>
+      <c r="F169" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" s="3">
+        <v>45863</v>
+      </c>
+      <c r="H169" t="s">
+        <v>196</v>
+      </c>
+      <c r="I169" s="3"/>
+      <c r="J169" t="s">
+        <v>177</v>
+      </c>
+      <c r="K169" s="4"/>
+      <c r="L169" t="s">
+        <v>72</v>
+      </c>
+      <c r="O169" s="3"/>
+      <c r="P169" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>197</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" t="s">
+        <v>236</v>
+      </c>
+      <c r="E170">
+        <v>15</v>
+      </c>
+      <c r="F170" t="s">
+        <v>172</v>
+      </c>
+      <c r="G170" s="3">
+        <v>45860</v>
+      </c>
+      <c r="H170" t="s">
+        <v>194</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="J170" t="s">
+        <v>177</v>
+      </c>
+      <c r="K170" s="4"/>
+      <c r="L170" t="s">
+        <v>72</v>
+      </c>
+      <c r="O170" s="3"/>
+      <c r="P170" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" t="s">
+        <v>159</v>
+      </c>
+      <c r="D171" t="s">
+        <v>160</v>
+      </c>
+      <c r="E171">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>172</v>
+      </c>
+      <c r="G171" s="3">
+        <v>45860</v>
+      </c>
+      <c r="H171" t="s">
+        <v>194</v>
+      </c>
+      <c r="I171" s="3"/>
+      <c r="J171" t="s">
+        <v>177</v>
+      </c>
+      <c r="K171" s="4"/>
+      <c r="L171" t="s">
+        <v>72</v>
+      </c>
+      <c r="O171" s="3"/>
+      <c r="P171" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>238</v>
+      </c>
+      <c r="D172" t="s">
+        <v>239</v>
+      </c>
+      <c r="E172">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>172</v>
+      </c>
+      <c r="G172" s="3">
+        <v>45861</v>
+      </c>
+      <c r="H172" t="s">
+        <v>193</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" t="s">
+        <v>177</v>
+      </c>
+      <c r="K172" s="4"/>
+      <c r="L172" t="s">
+        <v>72</v>
+      </c>
+      <c r="O172" s="3"/>
+      <c r="P172" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>197</v>
+      </c>
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173" t="s">
+        <v>164</v>
+      </c>
+      <c r="E173">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>172</v>
+      </c>
+      <c r="G173" s="3">
+        <v>45861</v>
+      </c>
+      <c r="H173" t="s">
+        <v>193</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" t="s">
+        <v>177</v>
+      </c>
+      <c r="K173" s="4"/>
+      <c r="L173" t="s">
+        <v>72</v>
+      </c>
+      <c r="O173" s="3"/>
+      <c r="P173" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B174" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" t="s">
+        <v>170</v>
+      </c>
+      <c r="D174" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>172</v>
+      </c>
+      <c r="G174" s="3">
+        <v>45862</v>
+      </c>
+      <c r="H174" t="s">
+        <v>195</v>
+      </c>
+      <c r="I174" s="3"/>
+      <c r="J174" t="s">
+        <v>177</v>
+      </c>
+      <c r="K174" s="4"/>
+      <c r="L174" t="s">
+        <v>72</v>
+      </c>
+      <c r="O174" s="3"/>
+      <c r="P174" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" t="s">
+        <v>241</v>
+      </c>
+      <c r="D175" t="s">
+        <v>242</v>
+      </c>
+      <c r="E175">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
+        <v>172</v>
+      </c>
+      <c r="G175" s="3">
+        <v>45862</v>
+      </c>
+      <c r="H175" t="s">
+        <v>195</v>
+      </c>
+      <c r="I175" s="3"/>
+      <c r="J175" t="s">
+        <v>177</v>
+      </c>
+      <c r="K175" s="4"/>
+      <c r="L175" t="s">
+        <v>72</v>
+      </c>
+      <c r="O175" s="3"/>
+      <c r="P175" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176">
+        <v>15</v>
+      </c>
+      <c r="F176" t="s">
+        <v>172</v>
+      </c>
+      <c r="G176" s="3">
+        <v>45863</v>
+      </c>
+      <c r="H176" t="s">
+        <v>196</v>
+      </c>
+      <c r="I176" s="3"/>
+      <c r="J176" t="s">
+        <v>177</v>
+      </c>
+      <c r="K176" s="4"/>
+      <c r="L176" t="s">
+        <v>72</v>
+      </c>
+      <c r="O176" s="3"/>
+      <c r="P176" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
